--- a/Luma_testdata.xlsx
+++ b/Luma_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_testing-files\Automation_project1-main\Luma-Prj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044D92E-7374-4C8A-A643-527A934C6A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334019E0-7664-46E4-9518-84DFA45DAA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Create New Customer Account</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Tees</t>
+  </si>
+  <si>
+    <t>Raghunew@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -606,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">

--- a/Luma_testdata.xlsx
+++ b/Luma_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_testing-files\Automation_project1-main\Luma-Prj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334019E0-7664-46E4-9518-84DFA45DAA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C15FEE-B0AA-437C-BD03-7CC67E4343F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Create New Customer Account</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Createaccount_001</t>
   </si>
   <si>
-    <t>First name error</t>
-  </si>
-  <si>
     <t>Createaccount_002</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Add item to cart</t>
   </si>
   <si>
-    <t>You added Breathe-Easy Tank to your shopping cart.</t>
-  </si>
-  <si>
     <t>Landingpage_001</t>
   </si>
   <si>
@@ -249,26 +243,47 @@
     <t>Tees</t>
   </si>
   <si>
-    <t>Raghunew@gmail.com</t>
+    <t>The account sign-in was incorrect or your account is disabled temporarily. Please wait and try again later.</t>
+  </si>
+  <si>
+    <t>You added Breathe-Easy Tank to your shopping cart.</t>
+  </si>
+  <si>
+    <t>First name not filled</t>
+  </si>
+  <si>
+    <t>Last name not filled</t>
+  </si>
+  <si>
+    <t>Email address not filled</t>
+  </si>
+  <si>
+    <t>Password not filled</t>
+  </si>
+  <si>
+    <t>Confirm password not filled</t>
+  </si>
+  <si>
+    <t>Existing account creation</t>
+  </si>
+  <si>
+    <t>New account creation</t>
+  </si>
+  <si>
+    <t>Raghu14@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -312,16 +327,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -610,7 +624,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,30 +635,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -652,23 +669,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -676,7 +702,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -684,31 +713,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -716,13 +748,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -730,212 +762,216 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>44</v>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C27" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C32" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{80102FBC-BF90-44C1-ACB9-E0AEB23D744E}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{9F7E4DDF-1398-4809-89CF-4D7A563F2D62}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{EF20F5D0-F7AE-4EF0-AEFF-98B718FD5730}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{D0D6F61B-24FC-4654-8841-9B537856E3FD}"/>
-    <hyperlink ref="C35" r:id="rId5" display="https://magento.softwaretestingboard.com/checkout/cart/" xr:uid="{7D17F6B0-0CEC-4EF8-A9D5-9B8119E1D599}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{D0D6F61B-24FC-4654-8841-9B537856E3FD}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{EF20F5D0-F7AE-4EF0-AEFF-98B718FD5730}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9F7E4DDF-1398-4809-89CF-4D7A563F2D62}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{64EBD9F9-C060-4784-878A-3B0344EBD016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>